--- a/natmiOut/OldD0/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/F7-F3.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.45446289386708</v>
+        <v>2.080076666666666</v>
       </c>
       <c r="H2">
-        <v>1.45446289386708</v>
+        <v>6.240229999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07827362944335</v>
+        <v>9.848466999999999</v>
       </c>
       <c r="N2">
-        <v>1.07827362944335</v>
+        <v>29.545401</v>
       </c>
       <c r="O2">
-        <v>0.005356358552925631</v>
+        <v>0.0466568297496787</v>
       </c>
       <c r="P2">
-        <v>0.005356358552925631</v>
+        <v>0.0466568297496787</v>
       </c>
       <c r="Q2">
-        <v>1.568308983460734</v>
+        <v>20.48556640913666</v>
       </c>
       <c r="R2">
-        <v>1.568308983460734</v>
+        <v>184.37009768223</v>
       </c>
       <c r="S2">
-        <v>0.005356358552925631</v>
+        <v>0.0466568297496787</v>
       </c>
       <c r="T2">
-        <v>0.005356358552925631</v>
+        <v>0.0466568297496787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.45446289386708</v>
+        <v>2.080076666666666</v>
       </c>
       <c r="H3">
-        <v>1.45446289386708</v>
+        <v>6.240229999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>197.260126145732</v>
+        <v>198.2465873333333</v>
       </c>
       <c r="N3">
-        <v>197.260126145732</v>
+        <v>594.7397619999999</v>
       </c>
       <c r="O3">
-        <v>0.9798959512506483</v>
+        <v>0.9391875175767094</v>
       </c>
       <c r="P3">
-        <v>0.9798959512506483</v>
+        <v>0.9391875175767094</v>
       </c>
       <c r="Q3">
-        <v>286.9075339185066</v>
+        <v>412.3681005583621</v>
       </c>
       <c r="R3">
-        <v>286.9075339185066</v>
+        <v>3711.312905025259</v>
       </c>
       <c r="S3">
-        <v>0.9798959512506483</v>
+        <v>0.9391875175767094</v>
       </c>
       <c r="T3">
-        <v>0.9798959512506483</v>
+        <v>0.9391875175767094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.45446289386708</v>
+        <v>2.080076666666666</v>
       </c>
       <c r="H4">
-        <v>1.45446289386708</v>
+        <v>6.240229999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.96881645933145</v>
+        <v>2.988018666666667</v>
       </c>
       <c r="N4">
-        <v>2.96881645933145</v>
+        <v>8.964055999999999</v>
       </c>
       <c r="O4">
-        <v>0.01474769019642603</v>
+        <v>0.01415565267361191</v>
       </c>
       <c r="P4">
-        <v>0.01474769019642603</v>
+        <v>0.01415565267361191</v>
       </c>
       <c r="Q4">
-        <v>4.31803337879944</v>
+        <v>6.215307908097777</v>
       </c>
       <c r="R4">
-        <v>4.31803337879944</v>
+        <v>55.93777117287999</v>
       </c>
       <c r="S4">
-        <v>0.01474769019642603</v>
+        <v>0.01415565267361191</v>
       </c>
       <c r="T4">
-        <v>0.01474769019642603</v>
+        <v>0.01415565267361191</v>
       </c>
     </row>
   </sheetData>
